--- a/test/result/git-diff.xlsx
+++ b/test/result/git-diff.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1804140829253622qr9jlpa7bdfd"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId18041408422379432hhl64qnutkw"/>
   </sheets>
 </workbook>
 </file>
@@ -10,91 +10,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>diff --git a/README.md b/README.md</t>
-  </si>
-  <si>
-    <t>index 7dbf637..ad542b2 100644</t>
-  </si>
-  <si>
-    <t>--- a/README.md</t>
-  </si>
-  <si>
-    <t>+++ b/README.md</t>
-  </si>
-  <si>
-    <t>@@ -5,9 +5,17 @@ Convert diff to xlsx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ## Description</t>
+    <t>diff --git a/.gitignore b/.gitignore</t>
+  </si>
+  <si>
+    <t>index cb2d8e1..178abf0 100644</t>
+  </si>
+  <si>
+    <t>--- a/.gitignore</t>
+  </si>
+  <si>
+    <t>+++ b/.gitignore</t>
+  </si>
+  <si>
+    <t>@@ -1,3 +1,4 @@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /bin/</t>
+  </si>
+  <si>
+    <t>+/test/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /vendor/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *.test</t>
+  </si>
+  <si>
+    <t>diff --git a/script/test.sh b/script/test.sh</t>
+  </si>
+  <si>
+    <t>index d9a79d5..b91aee6 100644</t>
+  </si>
+  <si>
+    <t>--- a/script/test.sh</t>
+  </si>
+  <si>
+    <t>+++ b/script/test.sh</t>
+  </si>
+  <si>
+    <t>@@ -2,7 +2,10 @@</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> ## Usage</t>
-  </si>
-  <si>
-    <t>+Standard.</t>
+    <t xml:space="preserve"> set -eu</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> ```bash</t>
-  </si>
-  <si>
-    <t>-git diff | diff2xlsx write -o diff.xlsx</t>
-  </si>
-  <si>
-    <t>+git --no-pager diff | diff2xlsx write -o diff.xlsx</t>
-  </si>
-  <si>
-    <t>+```</t>
+    <t>-cat &lt;&lt; EOL | ./bin/diff2xlsx write -o test/result/standard.xlsx</t>
+  </si>
+  <si>
+    <t>+result_dir=test/result</t>
+  </si>
+  <si>
+    <t>+mkdir -p $result_dir</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>+See help.</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>+```bash</t>
-  </si>
-  <si>
-    <t>+diff2xlsx</t>
-  </si>
-  <si>
-    <t>+diff2xlsx write -h</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ```</t>
+    <t>+cat &lt;&lt; EOL | ./bin/diff2xlsx write -o $result_dir/standard.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  foobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hogepiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --- abababa</t>
+  </si>
+  <si>
+    <t>@@ -12,7 +15,7 @@ cat &lt;&lt; EOL | ./bin/diff2xlsx write -o test/result/standard.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + fugapiy0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EOL</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> ## Install</t>
-  </si>
-  <si>
-    <t>diff --git a/script/test.sh b/script/test.sh</t>
-  </si>
-  <si>
-    <t>index c02c6eb..d9a79d5 100644</t>
-  </si>
-  <si>
-    <t>--- a/script/test.sh</t>
-  </si>
-  <si>
-    <t>+++ b/script/test.sh</t>
-  </si>
-  <si>
-    <t>@@ -21,3 +21,5 @@ cat &lt;&lt; EOL | ./bin/diff2xlsx write -n -o test/result/no-attribute.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - fugapiyo</t>
+    <t>-cat &lt;&lt; EOL | ./bin/diff2xlsx write -n -o test/result/no-attribute.xlsx</t>
+  </si>
+  <si>
+    <t>+cat &lt;&lt; EOL | ./bin/diff2xlsx write -n -o $result_dir/no-attribute.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  foobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hogepiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --- abababa</t>
+  </si>
+  <si>
+    <t>@@ -22,4 +25,4 @@ cat &lt;&lt; EOL | ./bin/diff2xlsx write -n -o test/result/no-attribute.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve"> + fugapiy0</t>
@@ -103,16 +121,31 @@
     <t xml:space="preserve"> EOL</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>+git --no-pager diff | ./bin/diff2xlsx write -o test/result/git-diff.xlsx</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-git --no-pager diff | ./bin/diff2xlsx write -o test/result/git-diff.xlsx</t>
+  </si>
+  <si>
+    <t>+git --no-pager diff | ./bin/diff2xlsx write -o $result_dir/git-diff.xlsx</t>
+  </si>
+  <si>
+    <t>diff --git a/test/result/git-diff.xlsx b/test/result/git-diff.xlsx</t>
+  </si>
+  <si>
+    <t>deleted file mode 100644</t>
+  </si>
+  <si>
+    <t>index 1382b13..0000000</t>
+  </si>
+  <si>
+    <t>Binary files a/test/result/git-diff.xlsx and /dev/null differ</t>
   </si>
   <si>
     <t>diff --git a/test/result/no-attribute.xlsx b/test/result/no-attribute.xlsx</t>
   </si>
   <si>
-    <t>index d6a2d81..1ba15dd 100644</t>
+    <t>index 7731722..8a974af 100644</t>
   </si>
   <si>
     <t>Binary files a/test/result/no-attribute.xlsx and b/test/result/no-attribute.xlsx differ</t>
@@ -121,7 +154,7 @@
     <t>diff --git a/test/result/standard.xlsx b/test/result/standard.xlsx</t>
   </si>
   <si>
-    <t>index e45651e..e7598a3 100644</t>
+    <t>index 9e1719d..85d77a7 100644</t>
   </si>
   <si>
     <t>Binary files a/test/result/standard.xlsx and b/test/result/standard.xlsx differ</t>
@@ -134,16 +167,166 @@
   <fonts>
     <font/>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
     </font>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
     </font>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
     </font>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
     </font>
   </fonts>
   <fills>
@@ -160,17 +343,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF00"/>
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
   </fills>
   <borders>
     <border/>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
     <border>
       <left style="hair">
         <color rgb="000000"/>
@@ -591,45 +884,56 @@
   </cellStyleXfs>
   <cellXfs>
     <xf/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1125,6 +1429,61 @@
         <v>38</v>
       </c>
     </row>
+    <row r="41">
+      <c r="B41" t="s" s="40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="50">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>